--- a/PREGAME/1.ELICITACIÓN/1.2 Cronograma/Cronograma G3 V4.0.xlsx
+++ b/PREGAME/1.ELICITACIÓN/1.2 Cronograma/Cronograma G3 V4.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Documentos\_23305_G3_ADS\PREGAME\1.ELICITACIÓN\1.2 Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -682,21 +682,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +717,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,63 +1124,63 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:25" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
       <c r="X6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="50" t="s">
+      <c r="Y6" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="27" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="31">
         <v>1</v>
       </c>
@@ -1226,10 +1226,10 @@
       <c r="W7" s="30">
         <v>12</v>
       </c>
-      <c r="Y7" s="51"/>
+      <c r="Y7" s="65"/>
     </row>
     <row r="8" spans="1:25" ht="76.8" customHeight="1">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="47" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -1247,27 +1247,27 @@
       <c r="F8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="52"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="43" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
       <c r="Y8" s="14" t="s">
         <v>10</v>
       </c>
@@ -1729,10 +1729,10 @@
       <c r="Y19" s="16"/>
     </row>
     <row r="20" spans="1:25" ht="109.8" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="28">
@@ -1747,67 +1747,67 @@
       <c r="F20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56" t="s">
+      <c r="G20" s="50"/>
+      <c r="H20" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="58" t="s">
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
       <c r="Y20" s="16"/>
     </row>
     <row r="21" spans="1:25" ht="121.8" customHeight="1">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
     </row>
     <row r="22" spans="1:25" ht="111.6" customHeight="1">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="56">
         <v>45790</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="56">
         <v>45790</v>
       </c>
       <c r="E22" s="19">
@@ -1817,12 +1817,12 @@
         <v>38</v>
       </c>
       <c r="G22" s="45"/>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="57" t="s">
         <v>9</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="45"/>
-      <c r="K22" s="63"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
@@ -1846,10 +1846,10 @@
       <c r="B23" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="56">
         <v>45797</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="56">
         <v>45797</v>
       </c>
       <c r="E23" s="13"/>
@@ -1886,10 +1886,10 @@
       <c r="B24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="56">
         <v>45797</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="56">
         <v>45799</v>
       </c>
       <c r="E24" s="13"/>
@@ -1920,31 +1920,31 @@
       <c r="Y24" s="16"/>
     </row>
     <row r="25" spans="1:25" ht="68.400000000000006" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
     </row>
     <row r="26" spans="1:25" ht="103.2" customHeight="1">
       <c r="A26" s="11" t="s">
@@ -1953,10 +1953,10 @@
       <c r="B26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="56">
         <v>45799</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="56">
         <v>45804</v>
       </c>
       <c r="E26" s="13"/>
@@ -1992,10 +1992,10 @@
       <c r="B27" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="56">
         <v>45799</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="56">
         <v>45804</v>
       </c>
       <c r="E27" s="13"/>
@@ -2031,10 +2031,10 @@
       <c r="B28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="56">
         <v>45799</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="56">
         <v>45804</v>
       </c>
       <c r="E28" s="13"/>
@@ -2070,10 +2070,10 @@
       <c r="B29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="56">
         <v>45799</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="56">
         <v>45804</v>
       </c>
       <c r="E29" s="13"/>
